--- a/src/main/java/com/illumy/qa/testdata/InputSheet.xlsx
+++ b/src/main/java/com/illumy/qa/testdata/InputSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thambibabu.dasari\workspace\illumyTestAutomation\illumy_IL\src\main\java\com\illumy\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CB6FB8-B7F9-4B74-84AD-5E3036623265}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEBCFC0-A2B6-4A42-8FFD-135358E40CE1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="888" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUpPage" sheetId="1" r:id="rId1"/>
@@ -726,15 +726,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,7 +1827,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,13 +1837,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="26" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1851,10 +1851,10 @@
       <c r="A2" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="28">
         <v>0.95833333333333337</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="27">
         <v>0.97916666666666663</v>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50760B86-E015-4E0F-A0FC-93F5BD29AE8B}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,7 +2016,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,13 +2052,13 @@
       <c r="B2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,110 +2149,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="29" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="25" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="29" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="25" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="29" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D5" s="25" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="31" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="9" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="8" t="s">
         <v>156</v>
       </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="9" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="8" t="s">
         <v>157</v>
       </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="29" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="32" t="s">
         <v>158</v>
       </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="29" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="32" t="s">
         <v>159</v>
       </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="29" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="32" t="s">
         <v>160</v>
       </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2265,7 +2314,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2620,7 +2669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DEF2B2-BD7B-49DB-A498-40E50A9B19EF}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
